--- a/pred_ohlcv/54_21/2019-11-13 FZZ ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-11-13 FZZ ohlcv.xlsx
@@ -1172,7 +1172,7 @@
         <v>3931959.964286976</v>
       </c>
       <c r="H30">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1198,7 +1198,7 @@
         <v>3890534.319538953</v>
       </c>
       <c r="H31">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1224,7 +1224,7 @@
         <v>3996423.986938953</v>
       </c>
       <c r="H32">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1250,7 +1250,7 @@
         <v>3908309.675141898</v>
       </c>
       <c r="H33">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1276,7 +1276,7 @@
         <v>3957888.192541898</v>
       </c>
       <c r="H34">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1302,7 +1302,7 @@
         <v>3371750.595041898</v>
       </c>
       <c r="H35">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1328,7 +1328,7 @@
         <v>3329011.835441898</v>
       </c>
       <c r="H36">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1354,7 +1354,7 @@
         <v>3329110.835441898</v>
       </c>
       <c r="H37">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1380,7 +1380,7 @@
         <v>3282886.880341898</v>
       </c>
       <c r="H38">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1406,7 +1406,7 @@
         <v>3282986.880341898</v>
       </c>
       <c r="H39">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1432,7 +1432,7 @@
         <v>3558403.757541898</v>
       </c>
       <c r="H40">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1484,7 +1484,7 @@
         <v>3556730.988041898</v>
       </c>
       <c r="H42">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1510,7 +1510,7 @@
         <v>3556942.472441898</v>
       </c>
       <c r="H43">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1536,7 +1536,7 @@
         <v>3558262.005941898</v>
       </c>
       <c r="H44">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -1588,7 +1588,7 @@
         <v>3278305.710541898</v>
       </c>
       <c r="H46">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -1614,7 +1614,7 @@
         <v>3287592.493750887</v>
       </c>
       <c r="H47">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -1640,7 +1640,7 @@
         <v>2828161.977350886</v>
       </c>
       <c r="H48">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -1666,7 +1666,7 @@
         <v>2828161.977350886</v>
       </c>
       <c r="H49">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -1692,7 +1692,7 @@
         <v>2828233.977350886</v>
       </c>
       <c r="H50">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -1718,7 +1718,7 @@
         <v>2821851.983950886</v>
       </c>
       <c r="H51">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -1848,7 +1848,7 @@
         <v>2136572.459250886</v>
       </c>
       <c r="H56">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -3824,7 +3824,7 @@
         <v>23664377.87232426</v>
       </c>
       <c r="H132">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -3850,7 +3850,7 @@
         <v>27670128.25092426</v>
       </c>
       <c r="H133">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -3876,7 +3876,7 @@
         <v>27670128.25092426</v>
       </c>
       <c r="H134">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -3902,7 +3902,7 @@
         <v>27862796.75662426</v>
       </c>
       <c r="H135">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="136" spans="1:8">
@@ -3928,7 +3928,7 @@
         <v>28003297.28917997</v>
       </c>
       <c r="H136">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="137" spans="1:8">
@@ -3954,7 +3954,7 @@
         <v>30645245.35092426</v>
       </c>
       <c r="H137">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="138" spans="1:8">
@@ -3980,7 +3980,7 @@
         <v>32649137.66232426</v>
       </c>
       <c r="H138">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="139" spans="1:8">
@@ -4006,7 +4006,7 @@
         <v>32069521.69340908</v>
       </c>
       <c r="H139">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="140" spans="1:8">
@@ -4032,7 +4032,7 @@
         <v>32982324.44980908</v>
       </c>
       <c r="H140">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="141" spans="1:8">
@@ -4058,7 +4058,7 @@
         <v>33633561.85930908</v>
       </c>
       <c r="H141">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="142" spans="1:8">
@@ -4084,7 +4084,7 @@
         <v>33625944.42360908</v>
       </c>
       <c r="H142">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="143" spans="1:8">
@@ -4110,7 +4110,7 @@
         <v>33129424.02600908</v>
       </c>
       <c r="H143">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="144" spans="1:8">
@@ -4136,7 +4136,7 @@
         <v>33453963.80780908</v>
       </c>
       <c r="H144">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="145" spans="1:8">
@@ -4162,7 +4162,7 @@
         <v>32681330.36780908</v>
       </c>
       <c r="H145">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="146" spans="1:8">
@@ -4188,7 +4188,7 @@
         <v>32472492.35380908</v>
       </c>
       <c r="H146">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="147" spans="1:8">
@@ -4240,7 +4240,7 @@
         <v>32414782.67500908</v>
       </c>
       <c r="H148">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="149" spans="1:8">
@@ -4266,7 +4266,7 @@
         <v>32203372.65100908</v>
       </c>
       <c r="H149">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="150" spans="1:8">
@@ -4292,7 +4292,7 @@
         <v>31749766.31790908</v>
       </c>
       <c r="H150">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="151" spans="1:8">
@@ -4318,7 +4318,7 @@
         <v>31774195.19868793</v>
       </c>
       <c r="H151">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="152" spans="1:8">
@@ -4344,7 +4344,7 @@
         <v>31578338.80538793</v>
       </c>
       <c r="H152">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="153" spans="1:8">
@@ -4370,7 +4370,7 @@
         <v>31757164.10068792</v>
       </c>
       <c r="H153">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="154" spans="1:8">
@@ -4396,7 +4396,7 @@
         <v>31757164.10068792</v>
       </c>
       <c r="H154">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="155" spans="1:8">
@@ -4422,7 +4422,7 @@
         <v>31757164.10068792</v>
       </c>
       <c r="H155">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="156" spans="1:8">
@@ -4448,7 +4448,7 @@
         <v>31828865.77808793</v>
       </c>
       <c r="H156">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="157" spans="1:8">
@@ -4474,7 +4474,7 @@
         <v>31819626.52978792</v>
       </c>
       <c r="H157">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="158" spans="1:8">
@@ -4500,7 +4500,7 @@
         <v>31819626.52978792</v>
       </c>
       <c r="H158">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="159" spans="1:8">
@@ -4526,7 +4526,7 @@
         <v>32162517.25978792</v>
       </c>
       <c r="H159">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="160" spans="1:8">
@@ -4552,7 +4552,7 @@
         <v>31224630.76568792</v>
       </c>
       <c r="H160">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="161" spans="1:8">
@@ -4578,7 +4578,7 @@
         <v>30977168.27638792</v>
       </c>
       <c r="H161">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="162" spans="1:8">
@@ -4604,7 +4604,7 @@
         <v>31754856.04018792</v>
       </c>
       <c r="H162">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="163" spans="1:8">
@@ -4630,7 +4630,7 @@
         <v>31796794.49108792</v>
       </c>
       <c r="H163">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="164" spans="1:8">
@@ -4656,7 +4656,7 @@
         <v>31765957.49108792</v>
       </c>
       <c r="H164">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="165" spans="1:8">
@@ -4682,7 +4682,7 @@
         <v>31938109.39078792</v>
       </c>
       <c r="H165">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="166" spans="1:8">
@@ -4708,7 +4708,7 @@
         <v>31924637.07418792</v>
       </c>
       <c r="H166">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="167" spans="1:8">
@@ -4734,7 +4734,7 @@
         <v>31865395.57058792</v>
       </c>
       <c r="H167">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="168" spans="1:8">
@@ -26288,7 +26288,7 @@
         <v>45854383.79195274</v>
       </c>
       <c r="H996">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="997" spans="1:8">
@@ -26314,7 +26314,7 @@
         <v>43067637.79185273</v>
       </c>
       <c r="H997">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="998" spans="1:8">
@@ -26340,7 +26340,7 @@
         <v>47231975.2220329</v>
       </c>
       <c r="H998">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="999" spans="1:8">
@@ -26366,7 +26366,7 @@
         <v>48006112.18292823</v>
       </c>
       <c r="H999">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1000" spans="1:8">
@@ -26392,7 +26392,7 @@
         <v>47002013.51484521</v>
       </c>
       <c r="H1000">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1001" spans="1:8">
@@ -26418,7 +26418,7 @@
         <v>45042082.19524521</v>
       </c>
       <c r="H1001">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1002" spans="1:8">
@@ -26444,7 +26444,7 @@
         <v>46925336.34040579</v>
       </c>
       <c r="H1002">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1003" spans="1:8">
@@ -26470,7 +26470,7 @@
         <v>44851521.79230579</v>
       </c>
       <c r="H1003">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1004" spans="1:8">
@@ -26496,7 +26496,7 @@
         <v>45675035.28350579</v>
       </c>
       <c r="H1004">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1005" spans="1:8">
@@ -26522,7 +26522,7 @@
         <v>44365340.28219428</v>
       </c>
       <c r="H1005">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1006" spans="1:8">
@@ -26548,7 +26548,7 @@
         <v>42621231.26779428</v>
       </c>
       <c r="H1006">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1007" spans="1:8">
@@ -26574,7 +26574,7 @@
         <v>40661037.73909428</v>
       </c>
       <c r="H1007">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1008" spans="1:8">
@@ -26626,7 +26626,7 @@
         <v>40968735.45659428</v>
       </c>
       <c r="H1009">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1010" spans="1:8">

--- a/pred_ohlcv/54_21/2019-11-13 FZZ ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-11-13 FZZ ohlcv.xlsx
@@ -1328,7 +1328,7 @@
         <v>3329011.835441898</v>
       </c>
       <c r="H36">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1354,7 +1354,7 @@
         <v>3329110.835441898</v>
       </c>
       <c r="H37">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1380,7 +1380,7 @@
         <v>3282886.880341898</v>
       </c>
       <c r="H38">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1406,7 +1406,7 @@
         <v>3282986.880341898</v>
       </c>
       <c r="H39">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1432,7 +1432,7 @@
         <v>3558403.757541898</v>
       </c>
       <c r="H40">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1484,7 +1484,7 @@
         <v>3556730.988041898</v>
       </c>
       <c r="H42">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1510,7 +1510,7 @@
         <v>3556942.472441898</v>
       </c>
       <c r="H43">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1536,7 +1536,7 @@
         <v>3558262.005941898</v>
       </c>
       <c r="H44">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -1588,7 +1588,7 @@
         <v>3278305.710541898</v>
       </c>
       <c r="H46">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -1614,7 +1614,7 @@
         <v>3287592.493750887</v>
       </c>
       <c r="H47">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -1640,7 +1640,7 @@
         <v>2828161.977350886</v>
       </c>
       <c r="H48">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -1666,7 +1666,7 @@
         <v>2828161.977350886</v>
       </c>
       <c r="H49">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -1718,7 +1718,7 @@
         <v>2821851.983950886</v>
       </c>
       <c r="H51">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -1926,7 +1926,7 @@
         <v>2843370.008950887</v>
       </c>
       <c r="H59">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -1952,7 +1952,7 @@
         <v>2941291.961950887</v>
       </c>
       <c r="H60">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -1978,7 +1978,7 @@
         <v>5468842.174796822</v>
       </c>
       <c r="H61">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -3824,7 +3824,7 @@
         <v>23664377.87232426</v>
       </c>
       <c r="H132">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -3850,7 +3850,7 @@
         <v>27670128.25092426</v>
       </c>
       <c r="H133">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -3876,7 +3876,7 @@
         <v>27670128.25092426</v>
       </c>
       <c r="H134">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -3902,7 +3902,7 @@
         <v>27862796.75662426</v>
       </c>
       <c r="H135">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="136" spans="1:8">
@@ -3928,7 +3928,7 @@
         <v>28003297.28917997</v>
       </c>
       <c r="H136">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="137" spans="1:8">
@@ -3954,7 +3954,7 @@
         <v>30645245.35092426</v>
       </c>
       <c r="H137">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="138" spans="1:8">
@@ -3980,7 +3980,7 @@
         <v>32649137.66232426</v>
       </c>
       <c r="H138">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="139" spans="1:8">
@@ -4006,7 +4006,7 @@
         <v>32069521.69340908</v>
       </c>
       <c r="H139">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="140" spans="1:8">
@@ -4032,7 +4032,7 @@
         <v>32982324.44980908</v>
       </c>
       <c r="H140">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="141" spans="1:8">
@@ -4058,7 +4058,7 @@
         <v>33633561.85930908</v>
       </c>
       <c r="H141">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="142" spans="1:8">
@@ -4084,7 +4084,7 @@
         <v>33625944.42360908</v>
       </c>
       <c r="H142">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="143" spans="1:8">
@@ -4110,7 +4110,7 @@
         <v>33129424.02600908</v>
       </c>
       <c r="H143">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="144" spans="1:8">
@@ -4136,7 +4136,7 @@
         <v>33453963.80780908</v>
       </c>
       <c r="H144">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="145" spans="1:8">
@@ -4162,7 +4162,7 @@
         <v>32681330.36780908</v>
       </c>
       <c r="H145">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="146" spans="1:8">
@@ -4188,7 +4188,7 @@
         <v>32472492.35380908</v>
       </c>
       <c r="H146">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="147" spans="1:8">
@@ -4240,7 +4240,7 @@
         <v>32414782.67500908</v>
       </c>
       <c r="H148">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="149" spans="1:8">
@@ -4266,7 +4266,7 @@
         <v>32203372.65100908</v>
       </c>
       <c r="H149">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="150" spans="1:8">
@@ -4292,7 +4292,7 @@
         <v>31749766.31790908</v>
       </c>
       <c r="H150">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="151" spans="1:8">
@@ -4318,7 +4318,7 @@
         <v>31774195.19868793</v>
       </c>
       <c r="H151">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="152" spans="1:8">
@@ -4344,7 +4344,7 @@
         <v>31578338.80538793</v>
       </c>
       <c r="H152">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="153" spans="1:8">
@@ -4370,7 +4370,7 @@
         <v>31757164.10068792</v>
       </c>
       <c r="H153">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="154" spans="1:8">
@@ -4396,7 +4396,7 @@
         <v>31757164.10068792</v>
       </c>
       <c r="H154">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="155" spans="1:8">
@@ -4422,7 +4422,7 @@
         <v>31757164.10068792</v>
       </c>
       <c r="H155">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="156" spans="1:8">
@@ -4448,7 +4448,7 @@
         <v>31828865.77808793</v>
       </c>
       <c r="H156">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="157" spans="1:8">
@@ -4474,7 +4474,7 @@
         <v>31819626.52978792</v>
       </c>
       <c r="H157">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="158" spans="1:8">
@@ -4500,7 +4500,7 @@
         <v>31819626.52978792</v>
       </c>
       <c r="H158">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="159" spans="1:8">
@@ -4526,7 +4526,7 @@
         <v>32162517.25978792</v>
       </c>
       <c r="H159">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="160" spans="1:8">
@@ -4552,7 +4552,7 @@
         <v>31224630.76568792</v>
       </c>
       <c r="H160">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="161" spans="1:8">
@@ -4578,7 +4578,7 @@
         <v>30977168.27638792</v>
       </c>
       <c r="H161">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="162" spans="1:8">
@@ -4604,7 +4604,7 @@
         <v>31754856.04018792</v>
       </c>
       <c r="H162">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="163" spans="1:8">
@@ -4630,7 +4630,7 @@
         <v>31796794.49108792</v>
       </c>
       <c r="H163">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="164" spans="1:8">
@@ -4656,7 +4656,7 @@
         <v>31765957.49108792</v>
       </c>
       <c r="H164">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="165" spans="1:8">
@@ -4682,7 +4682,7 @@
         <v>31938109.39078792</v>
       </c>
       <c r="H165">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="166" spans="1:8">
@@ -4708,7 +4708,7 @@
         <v>31924637.07418792</v>
       </c>
       <c r="H166">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="167" spans="1:8">
@@ -4734,7 +4734,7 @@
         <v>31865395.57058792</v>
       </c>
       <c r="H167">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="168" spans="1:8">
@@ -26132,7 +26132,7 @@
         <v>40170196.65268787</v>
       </c>
       <c r="H990">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="991" spans="1:8">
@@ -26158,7 +26158,7 @@
         <v>40170196.65268787</v>
       </c>
       <c r="H991">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="992" spans="1:8">
@@ -26236,7 +26236,7 @@
         <v>45060682.99879435</v>
       </c>
       <c r="H994">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="995" spans="1:8">
@@ -26262,7 +26262,7 @@
         <v>47132220.56005274</v>
       </c>
       <c r="H995">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="996" spans="1:8">
@@ -26288,7 +26288,7 @@
         <v>45854383.79195274</v>
       </c>
       <c r="H996">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="997" spans="1:8">
@@ -26314,7 +26314,7 @@
         <v>43067637.79185273</v>
       </c>
       <c r="H997">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="998" spans="1:8">
@@ -26340,7 +26340,7 @@
         <v>47231975.2220329</v>
       </c>
       <c r="H998">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="999" spans="1:8">
@@ -26366,7 +26366,7 @@
         <v>48006112.18292823</v>
       </c>
       <c r="H999">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1000" spans="1:8">
@@ -26392,7 +26392,7 @@
         <v>47002013.51484521</v>
       </c>
       <c r="H1000">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1001" spans="1:8">
@@ -26418,7 +26418,7 @@
         <v>45042082.19524521</v>
       </c>
       <c r="H1001">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1002" spans="1:8">
@@ -26444,7 +26444,7 @@
         <v>46925336.34040579</v>
       </c>
       <c r="H1002">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1003" spans="1:8">
@@ -26470,7 +26470,7 @@
         <v>44851521.79230579</v>
       </c>
       <c r="H1003">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1004" spans="1:8">
@@ -26496,7 +26496,7 @@
         <v>45675035.28350579</v>
       </c>
       <c r="H1004">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1005" spans="1:8">
@@ -26522,7 +26522,7 @@
         <v>44365340.28219428</v>
       </c>
       <c r="H1005">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1006" spans="1:8">
@@ -26548,7 +26548,7 @@
         <v>42621231.26779428</v>
       </c>
       <c r="H1006">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1007" spans="1:8">
@@ -26574,7 +26574,7 @@
         <v>40661037.73909428</v>
       </c>
       <c r="H1007">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1008" spans="1:8">
@@ -26600,7 +26600,7 @@
         <v>39356977.85109428</v>
       </c>
       <c r="H1008">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1009" spans="1:8">
@@ -26626,7 +26626,7 @@
         <v>40968735.45659428</v>
       </c>
       <c r="H1009">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1010" spans="1:8">
@@ -26652,7 +26652,7 @@
         <v>39518007.28549428</v>
       </c>
       <c r="H1010">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1011" spans="1:8">
@@ -26678,7 +26678,7 @@
         <v>38916440.28029428</v>
       </c>
       <c r="H1011">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1012" spans="1:8">
@@ -26834,7 +26834,7 @@
         <v>38010042.91908327</v>
       </c>
       <c r="H1017">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1018" spans="1:8">
@@ -26860,7 +26860,7 @@
         <v>38902288.26138327</v>
       </c>
       <c r="H1018">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1019" spans="1:8">
@@ -26886,7 +26886,7 @@
         <v>38902288.26138327</v>
       </c>
       <c r="H1019">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1020" spans="1:8">
